--- a/Tables/static_allometry_species_comparison.xlsx
+++ b/Tables/static_allometry_species_comparison.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iris/Documents/GitHub/pristurus_allometry/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EEC9F56-9DBF-054A-8C98-4A5F5A577460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8AF6645F-A08C-BC44-8838-140611DD17A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="500" windowWidth="25100" windowHeight="15920"/>
   </bookViews>
   <sheets>
     <sheet name="static_allometry_species_compar" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="29">
   <si>
     <t>Pristurus_carteri</t>
   </si>
@@ -249,7 +250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,6 +433,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,7 +689,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -692,9 +705,46 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1052,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1072,7 +1122,7 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="32" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1081,16 +1131,16 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="32" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="34" t="s">
         <v>8</v>
       </c>
       <c r="L1" t="s">
@@ -1099,7 +1149,7 @@
       <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="34" t="s">
         <v>11</v>
       </c>
       <c r="O1" t="s">
@@ -1117,13 +1167,13 @@
       <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="34" t="s">
         <v>17</v>
       </c>
       <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="34" t="s">
         <v>19</v>
       </c>
       <c r="W1" s="4" t="s">
@@ -1309,7 +1359,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1558,7 +1608,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1724,22 +1774,22 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="23">
         <v>0.75</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="22">
         <v>0.79</v>
       </c>
       <c r="E9" s="11">
         <v>0.8</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="22">
         <v>0.7</v>
       </c>
       <c r="G9" s="11">
@@ -1748,7 +1798,7 @@
       <c r="H9" s="11">
         <v>0.86</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="19">
         <v>0.67</v>
       </c>
       <c r="J9" s="9">
@@ -1807,7 +1857,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1819,7 +1869,7 @@
       <c r="D10" s="12">
         <v>0.88</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="21">
         <v>0.73</v>
       </c>
       <c r="F10" s="1">
@@ -1828,13 +1878,13 @@
       <c r="G10" s="12">
         <v>0.84</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="18">
         <v>0.62</v>
       </c>
       <c r="I10" s="1">
         <v>0.94</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="28">
         <v>0.51</v>
       </c>
       <c r="K10" s="1">
@@ -1917,7 +1967,7 @@
       <c r="I11" s="3">
         <v>0.97</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="25">
         <v>0.79</v>
       </c>
       <c r="K11" s="10">
@@ -2000,7 +2050,7 @@
       <c r="I12" s="3">
         <v>0.96</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="25">
         <v>0.78</v>
       </c>
       <c r="K12" s="10">
@@ -2056,19 +2106,19 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="31" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="26">
         <v>0.64</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="20">
         <v>0.62</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="20">
         <v>0.76</v>
       </c>
       <c r="F13" s="10">
@@ -2077,22 +2127,22 @@
       <c r="G13" s="10">
         <v>0.74</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="17">
         <v>0.65</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="17">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="25">
         <v>0.7</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="17">
         <v>0.54</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="17">
         <v>0.67</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="17">
         <v>0.67</v>
       </c>
       <c r="N13" s="3">
@@ -2166,7 +2216,7 @@
       <c r="I14" s="3">
         <v>0.94</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="15">
         <v>0.82</v>
       </c>
       <c r="K14" s="10">
@@ -2178,7 +2228,7 @@
       <c r="M14" s="3">
         <v>0.95</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="20">
         <v>0.77</v>
       </c>
       <c r="O14" s="3">
@@ -2249,7 +2299,7 @@
       <c r="I15" s="3">
         <v>0.97</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="27">
         <v>0.61</v>
       </c>
       <c r="K15" s="3">
@@ -2261,7 +2311,7 @@
       <c r="M15" s="3">
         <v>0.95</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="17">
         <v>0.64</v>
       </c>
       <c r="O15" s="3">
@@ -2317,7 +2367,7 @@
       <c r="D16" s="3">
         <v>0.9</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="20">
         <v>0.78</v>
       </c>
       <c r="F16" s="3">
@@ -2326,13 +2376,13 @@
       <c r="G16" s="10">
         <v>0.86</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="17">
         <v>0.67</v>
       </c>
       <c r="I16" s="3">
         <v>0.95</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="27">
         <v>0.5</v>
       </c>
       <c r="K16" s="3">
@@ -2344,7 +2394,7 @@
       <c r="M16" s="3">
         <v>0.9</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="17">
         <v>0.48</v>
       </c>
       <c r="O16" s="10">
@@ -2415,7 +2465,7 @@
       <c r="I17" s="3">
         <v>0.98</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="25">
         <v>0.78</v>
       </c>
       <c r="K17" s="10">
@@ -2427,7 +2477,7 @@
       <c r="M17" s="3">
         <v>0.96</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="17">
         <v>0.66</v>
       </c>
       <c r="O17" s="3">
@@ -2436,7 +2486,7 @@
       <c r="P17" s="3">
         <v>0.95</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="10">
         <v>0.89</v>
       </c>
       <c r="R17" s="3">
@@ -2498,7 +2548,7 @@
       <c r="I18" s="3">
         <v>0.99</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="25">
         <v>0.71</v>
       </c>
       <c r="K18" s="3">
@@ -2510,7 +2560,7 @@
       <c r="M18" s="3">
         <v>0.97</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18" s="17">
         <v>0.64</v>
       </c>
       <c r="O18" s="3">
@@ -2554,7 +2604,7 @@
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="31" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2581,10 +2631,10 @@
       <c r="I19" s="10">
         <v>0.85</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="15">
         <v>0.87</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="20">
         <v>0.79</v>
       </c>
       <c r="L19" s="3">
@@ -2602,7 +2652,7 @@
       <c r="P19" s="10">
         <v>0.85</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19" s="20">
         <v>0.78</v>
       </c>
       <c r="R19" s="3">
@@ -2664,7 +2714,7 @@
       <c r="I20" s="3">
         <v>0.91</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="25">
         <v>0.79</v>
       </c>
       <c r="K20" s="10">
@@ -2685,7 +2735,7 @@
       <c r="P20" s="3">
         <v>0.94</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="10">
         <v>0.86</v>
       </c>
       <c r="R20" s="3">
@@ -2720,7 +2770,7 @@
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="30" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2732,7 +2782,7 @@
       <c r="D21" s="2">
         <v>0.91</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="22">
         <v>0.73</v>
       </c>
       <c r="F21" s="2">
@@ -2741,13 +2791,13 @@
       <c r="G21" s="11">
         <v>0.82</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="19">
         <v>0.67</v>
       </c>
       <c r="I21" s="2">
         <v>0.94</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="29">
         <v>0.53</v>
       </c>
       <c r="K21" s="2">
@@ -2759,7 +2809,7 @@
       <c r="M21" s="11">
         <v>0.86</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N21" s="19">
         <v>0.39</v>
       </c>
       <c r="O21" s="11">
@@ -2771,16 +2821,16 @@
       <c r="Q21" s="2">
         <v>0.98</v>
       </c>
-      <c r="R21" s="2">
+      <c r="R21" s="11">
         <v>0.89</v>
       </c>
       <c r="S21" s="2">
         <v>0.94</v>
       </c>
-      <c r="T21" s="2">
+      <c r="T21" s="22">
         <v>0.74</v>
       </c>
-      <c r="U21" s="2">
+      <c r="U21" s="11">
         <v>0.8</v>
       </c>
       <c r="V21" s="2">
@@ -2830,7 +2880,7 @@
       <c r="I22" s="1">
         <v>0.99</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="24">
         <v>0.72</v>
       </c>
       <c r="K22" s="1">
@@ -2842,7 +2892,7 @@
       <c r="M22" s="1">
         <v>0.98</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="18">
         <v>0.62</v>
       </c>
       <c r="O22" s="1">
@@ -2913,7 +2963,7 @@
       <c r="I23" s="3">
         <v>0.98</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="25">
         <v>0.73</v>
       </c>
       <c r="K23" s="3">
@@ -2925,7 +2975,7 @@
       <c r="M23" s="3">
         <v>0.98</v>
       </c>
-      <c r="N23" s="10">
+      <c r="N23" s="17">
         <v>0.69</v>
       </c>
       <c r="O23" s="3">
@@ -2949,7 +2999,7 @@
       <c r="U23" s="3">
         <v>0.96</v>
       </c>
-      <c r="V23" s="3">
+      <c r="V23" s="10">
         <v>0.89</v>
       </c>
       <c r="W23" s="6">
@@ -2996,7 +3046,7 @@
       <c r="I24" s="3">
         <v>0.92</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="27">
         <v>0.67</v>
       </c>
       <c r="K24" s="10">
@@ -3008,7 +3058,7 @@
       <c r="M24" s="3">
         <v>0.95</v>
       </c>
-      <c r="N24" s="10">
+      <c r="N24" s="17">
         <v>0.45</v>
       </c>
       <c r="O24" s="10">
@@ -3017,7 +3067,7 @@
       <c r="P24" s="3">
         <v>0.9</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="10">
         <v>0.88</v>
       </c>
       <c r="R24" s="3">
@@ -3026,13 +3076,13 @@
       <c r="S24" s="3">
         <v>0.92</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24" s="10">
         <v>0.83</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U24" s="10">
         <v>0.86</v>
       </c>
-      <c r="V24" s="3">
+      <c r="V24" s="10">
         <v>0.86</v>
       </c>
       <c r="W24" s="6">
@@ -3079,7 +3129,7 @@
       <c r="I25" s="3">
         <v>0.98</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="27">
         <v>0.69</v>
       </c>
       <c r="K25" s="3">
@@ -3091,7 +3141,7 @@
       <c r="M25" s="3">
         <v>0.95</v>
       </c>
-      <c r="N25" s="10">
+      <c r="N25" s="17">
         <v>0.63</v>
       </c>
       <c r="O25" s="3">
@@ -3109,7 +3159,7 @@
       <c r="S25" s="3">
         <v>0.99</v>
       </c>
-      <c r="T25" s="3">
+      <c r="T25" s="10">
         <v>0.86</v>
       </c>
       <c r="U25" s="3">
@@ -3162,7 +3212,7 @@
       <c r="I26" s="2">
         <v>1</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="29">
         <v>0.69</v>
       </c>
       <c r="K26" s="2">
@@ -3174,7 +3224,7 @@
       <c r="M26" s="2">
         <v>0.95</v>
       </c>
-      <c r="N26" s="11">
+      <c r="N26" s="19">
         <v>0.62</v>
       </c>
       <c r="O26" s="2">
@@ -3192,7 +3242,7 @@
       <c r="S26" s="2">
         <v>0.99</v>
       </c>
-      <c r="T26" s="2">
+      <c r="T26" s="11">
         <v>0.87</v>
       </c>
       <c r="U26" s="2">
@@ -3207,7 +3257,7 @@
       <c r="X26" s="2">
         <v>0.98</v>
       </c>
-      <c r="Y26" s="2">
+      <c r="Y26" s="11">
         <v>0.89</v>
       </c>
       <c r="Z26" s="2">
@@ -3220,4 +3270,2178 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA26"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6.31</v>
+      </c>
+      <c r="E2" s="1">
+        <v>26.18</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5.28</v>
+      </c>
+      <c r="G2" s="1">
+        <v>12.71</v>
+      </c>
+      <c r="H2" s="1">
+        <v>29.36</v>
+      </c>
+      <c r="I2" s="1">
+        <v>8.89</v>
+      </c>
+      <c r="J2" s="5">
+        <v>41.49</v>
+      </c>
+      <c r="K2" s="1">
+        <v>23.87</v>
+      </c>
+      <c r="L2" s="1">
+        <v>9.44</v>
+      </c>
+      <c r="M2" s="1">
+        <v>12.42</v>
+      </c>
+      <c r="N2" s="1">
+        <v>49.86</v>
+      </c>
+      <c r="O2" s="1">
+        <v>13.67</v>
+      </c>
+      <c r="P2" s="1">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>20.58</v>
+      </c>
+      <c r="R2" s="1">
+        <v>7.04</v>
+      </c>
+      <c r="S2" s="1">
+        <v>4.42</v>
+      </c>
+      <c r="T2" s="1">
+        <v>24.62</v>
+      </c>
+      <c r="U2" s="1">
+        <v>18.25</v>
+      </c>
+      <c r="V2" s="1">
+        <v>22.61</v>
+      </c>
+      <c r="W2" s="4">
+        <v>5.82</v>
+      </c>
+      <c r="X2" s="1">
+        <v>8.66</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>21.95</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>8.48</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>27.06</v>
+      </c>
+      <c r="F3" s="3">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="G3" s="3">
+        <v>13.57</v>
+      </c>
+      <c r="H3" s="3">
+        <v>26.46</v>
+      </c>
+      <c r="I3" s="3">
+        <v>11.78</v>
+      </c>
+      <c r="J3" s="7">
+        <v>38.130000000000003</v>
+      </c>
+      <c r="K3" s="3">
+        <v>28.08</v>
+      </c>
+      <c r="L3" s="3">
+        <v>11.26</v>
+      </c>
+      <c r="M3" s="3">
+        <v>13.75</v>
+      </c>
+      <c r="N3" s="3">
+        <v>51.83</v>
+      </c>
+      <c r="O3" s="3">
+        <v>15.99</v>
+      </c>
+      <c r="P3" s="3">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>25.18</v>
+      </c>
+      <c r="R3" s="3">
+        <v>6.44</v>
+      </c>
+      <c r="S3" s="3">
+        <v>10.29</v>
+      </c>
+      <c r="T3" s="3">
+        <v>25.01</v>
+      </c>
+      <c r="U3" s="3">
+        <v>20.86</v>
+      </c>
+      <c r="V3" s="3">
+        <v>25.16</v>
+      </c>
+      <c r="W3" s="6">
+        <v>10.45</v>
+      </c>
+      <c r="X3" s="3">
+        <v>11.74</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>20.49</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>12.51</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="D4" s="37">
+        <v>0.89</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>27.17</v>
+      </c>
+      <c r="G4" s="3">
+        <v>23.92</v>
+      </c>
+      <c r="H4" s="3">
+        <v>31.05</v>
+      </c>
+      <c r="I4" s="3">
+        <v>33.75</v>
+      </c>
+      <c r="J4" s="7">
+        <v>37.18</v>
+      </c>
+      <c r="K4" s="3">
+        <v>43.26</v>
+      </c>
+      <c r="L4" s="3">
+        <v>26.94</v>
+      </c>
+      <c r="M4" s="3">
+        <v>20.54</v>
+      </c>
+      <c r="N4" s="3">
+        <v>40.229999999999997</v>
+      </c>
+      <c r="O4" s="3">
+        <v>25.85</v>
+      </c>
+      <c r="P4" s="3">
+        <v>32.450000000000003</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>38.5</v>
+      </c>
+      <c r="R4" s="3">
+        <v>27.96</v>
+      </c>
+      <c r="S4" s="3">
+        <v>28.21</v>
+      </c>
+      <c r="T4" s="3">
+        <v>20.85</v>
+      </c>
+      <c r="U4" s="3">
+        <v>21.51</v>
+      </c>
+      <c r="V4" s="3">
+        <v>43.16</v>
+      </c>
+      <c r="W4" s="6">
+        <v>26.93</v>
+      </c>
+      <c r="X4" s="3">
+        <v>26.11</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>27.87</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>28.4</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>32.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="E5" s="37">
+        <v>0.89</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>15.74</v>
+      </c>
+      <c r="H5" s="3">
+        <v>32.979999999999997</v>
+      </c>
+      <c r="I5" s="3">
+        <v>7.67</v>
+      </c>
+      <c r="J5" s="7">
+        <v>45.3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>20.91</v>
+      </c>
+      <c r="L5" s="3">
+        <v>13.87</v>
+      </c>
+      <c r="M5" s="3">
+        <v>11.59</v>
+      </c>
+      <c r="N5" s="3">
+        <v>52.22</v>
+      </c>
+      <c r="O5" s="3">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="P5" s="3">
+        <v>15.34</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>17.13</v>
+      </c>
+      <c r="R5" s="3">
+        <v>11.47</v>
+      </c>
+      <c r="S5" s="3">
+        <v>4.67</v>
+      </c>
+      <c r="T5" s="3">
+        <v>26.86</v>
+      </c>
+      <c r="U5" s="3">
+        <v>19.55</v>
+      </c>
+      <c r="V5" s="3">
+        <v>20.75</v>
+      </c>
+      <c r="W5" s="6">
+        <v>3.64</v>
+      </c>
+      <c r="X5" s="3">
+        <v>8.31</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>19.54</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>10.47</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>20.74</v>
+      </c>
+      <c r="I6" s="3">
+        <v>16.93</v>
+      </c>
+      <c r="J6" s="7">
+        <v>37.31</v>
+      </c>
+      <c r="K6" s="3">
+        <v>32.68</v>
+      </c>
+      <c r="L6" s="3">
+        <v>11.84</v>
+      </c>
+      <c r="M6" s="3">
+        <v>14.45</v>
+      </c>
+      <c r="N6" s="3">
+        <v>42.68</v>
+      </c>
+      <c r="O6" s="3">
+        <v>14</v>
+      </c>
+      <c r="P6" s="3">
+        <v>17.91</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>31.04</v>
+      </c>
+      <c r="R6" s="3">
+        <v>9.17</v>
+      </c>
+      <c r="S6" s="3">
+        <v>15.51</v>
+      </c>
+      <c r="T6" s="3">
+        <v>23.82</v>
+      </c>
+      <c r="U6" s="3">
+        <v>16.45</v>
+      </c>
+      <c r="V6" s="3">
+        <v>34.46</v>
+      </c>
+      <c r="W6" s="6">
+        <v>17.170000000000002</v>
+      </c>
+      <c r="X6" s="3">
+        <v>12.58</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>27.65</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>14.08</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>15.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="36">
+        <v>0.87</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="E7" s="37">
+        <v>0.86</v>
+      </c>
+      <c r="F7" s="37">
+        <v>0.84</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.94</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>33.11</v>
+      </c>
+      <c r="J7" s="7">
+        <v>30.34</v>
+      </c>
+      <c r="K7" s="3">
+        <v>51.34</v>
+      </c>
+      <c r="L7" s="3">
+        <v>24.51</v>
+      </c>
+      <c r="M7" s="3">
+        <v>29.99</v>
+      </c>
+      <c r="N7" s="3">
+        <v>49.41</v>
+      </c>
+      <c r="O7" s="3">
+        <v>28.7</v>
+      </c>
+      <c r="P7" s="3">
+        <v>36.11</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>48.25</v>
+      </c>
+      <c r="R7" s="3">
+        <v>24.13</v>
+      </c>
+      <c r="S7" s="3">
+        <v>33.130000000000003</v>
+      </c>
+      <c r="T7" s="3">
+        <v>35.159999999999997</v>
+      </c>
+      <c r="U7" s="3">
+        <v>33.86</v>
+      </c>
+      <c r="V7" s="3">
+        <v>47.98</v>
+      </c>
+      <c r="W7" s="6">
+        <v>34.06</v>
+      </c>
+      <c r="X7" s="3">
+        <v>31.61</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>36.43</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>29.19</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>32.93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="E8" s="37">
+        <v>0.83</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="H8" s="37">
+        <v>0.84</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>47.94</v>
+      </c>
+      <c r="K8" s="3">
+        <v>20.23</v>
+      </c>
+      <c r="L8" s="3">
+        <v>14.7</v>
+      </c>
+      <c r="M8" s="3">
+        <v>17.2</v>
+      </c>
+      <c r="N8" s="3">
+        <v>55.37</v>
+      </c>
+      <c r="O8" s="3">
+        <v>20.12</v>
+      </c>
+      <c r="P8" s="3">
+        <v>15.04</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>17.88</v>
+      </c>
+      <c r="R8" s="3">
+        <v>11.34</v>
+      </c>
+      <c r="S8" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="T8" s="3">
+        <v>32.18</v>
+      </c>
+      <c r="U8" s="3">
+        <v>24.07</v>
+      </c>
+      <c r="V8" s="3">
+        <v>19.86</v>
+      </c>
+      <c r="W8" s="6">
+        <v>9.67</v>
+      </c>
+      <c r="X8" s="3">
+        <v>11.64</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>23.71</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>10.56</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="38">
+        <v>0.79</v>
+      </c>
+      <c r="E9" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="G9" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="H9" s="38">
+        <v>0.86</v>
+      </c>
+      <c r="I9" s="38">
+        <v>0.67</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>59.12</v>
+      </c>
+      <c r="L9" s="2">
+        <v>37.53</v>
+      </c>
+      <c r="M9" s="2">
+        <v>39.17</v>
+      </c>
+      <c r="N9" s="2">
+        <v>45.42</v>
+      </c>
+      <c r="O9" s="2">
+        <v>35.270000000000003</v>
+      </c>
+      <c r="P9" s="2">
+        <v>52.13</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>59.95</v>
+      </c>
+      <c r="R9" s="2">
+        <v>38.5</v>
+      </c>
+      <c r="S9" s="2">
+        <v>44.85</v>
+      </c>
+      <c r="T9" s="2">
+        <v>29.38</v>
+      </c>
+      <c r="U9" s="2">
+        <v>38.25</v>
+      </c>
+      <c r="V9" s="2">
+        <v>58.11</v>
+      </c>
+      <c r="W9" s="8">
+        <v>44.21</v>
+      </c>
+      <c r="X9" s="2">
+        <v>42.7</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>47.92</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>46.14</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>46.51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="46">
+        <v>0.91</v>
+      </c>
+      <c r="D10" s="39">
+        <v>0.88</v>
+      </c>
+      <c r="E10" s="39">
+        <v>0.73</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.93</v>
+      </c>
+      <c r="G10" s="39">
+        <v>0.84</v>
+      </c>
+      <c r="H10" s="39">
+        <v>0.62</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0.94</v>
+      </c>
+      <c r="J10" s="42">
+        <v>0.51</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>29.74</v>
+      </c>
+      <c r="M10" s="1">
+        <v>28.78</v>
+      </c>
+      <c r="N10" s="1">
+        <v>57.26</v>
+      </c>
+      <c r="O10" s="1">
+        <v>30.28</v>
+      </c>
+      <c r="P10" s="1">
+        <v>25.15</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>15.47</v>
+      </c>
+      <c r="R10" s="1">
+        <v>28.35</v>
+      </c>
+      <c r="S10" s="1">
+        <v>19.95</v>
+      </c>
+      <c r="T10" s="1">
+        <v>38</v>
+      </c>
+      <c r="U10" s="1">
+        <v>30.7</v>
+      </c>
+      <c r="V10" s="1">
+        <v>19.57</v>
+      </c>
+      <c r="W10" s="4">
+        <v>19.93</v>
+      </c>
+      <c r="X10" s="1">
+        <v>22.01</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>35.28</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>25.77</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>19.37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="E11" s="37">
+        <v>0.89</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="J11" s="40">
+        <v>0.79</v>
+      </c>
+      <c r="K11" s="37">
+        <v>0.87</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>17.48</v>
+      </c>
+      <c r="N11" s="3">
+        <v>47.87</v>
+      </c>
+      <c r="O11" s="3">
+        <v>10.11</v>
+      </c>
+      <c r="P11" s="3">
+        <v>23.65</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>26.19</v>
+      </c>
+      <c r="R11" s="3">
+        <v>8.41</v>
+      </c>
+      <c r="S11" s="3">
+        <v>11.48</v>
+      </c>
+      <c r="T11" s="3">
+        <v>25.4</v>
+      </c>
+      <c r="U11" s="3">
+        <v>20.58</v>
+      </c>
+      <c r="V11" s="3">
+        <v>26.54</v>
+      </c>
+      <c r="W11" s="6">
+        <v>13.51</v>
+      </c>
+      <c r="X11" s="3">
+        <v>15.63</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>28.4</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>9.77</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>13.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.94</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="H12" s="37">
+        <v>0.87</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="J12" s="40">
+        <v>0.78</v>
+      </c>
+      <c r="K12" s="37">
+        <v>0.88</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>47.7</v>
+      </c>
+      <c r="O12" s="3">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="P12" s="3">
+        <v>18.16</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>26.15</v>
+      </c>
+      <c r="R12" s="3">
+        <v>15.63</v>
+      </c>
+      <c r="S12" s="3">
+        <v>14.43</v>
+      </c>
+      <c r="T12" s="3">
+        <v>20.71</v>
+      </c>
+      <c r="U12" s="3">
+        <v>14.75</v>
+      </c>
+      <c r="V12" s="3">
+        <v>30.9</v>
+      </c>
+      <c r="W12" s="6">
+        <v>12.39</v>
+      </c>
+      <c r="X12" s="3">
+        <v>11.19</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>18.059999999999999</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>17.579999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="36">
+        <v>0.64</v>
+      </c>
+      <c r="D13" s="37">
+        <v>0.62</v>
+      </c>
+      <c r="E13" s="37">
+        <v>0.76</v>
+      </c>
+      <c r="F13" s="37">
+        <v>0.61</v>
+      </c>
+      <c r="G13" s="37">
+        <v>0.74</v>
+      </c>
+      <c r="H13" s="37">
+        <v>0.65</v>
+      </c>
+      <c r="I13" s="37">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J13" s="40">
+        <v>0.7</v>
+      </c>
+      <c r="K13" s="37">
+        <v>0.54</v>
+      </c>
+      <c r="L13" s="37">
+        <v>0.67</v>
+      </c>
+      <c r="M13" s="37">
+        <v>0.67</v>
+      </c>
+      <c r="N13" s="10">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>39.94</v>
+      </c>
+      <c r="P13" s="3">
+        <v>49.91</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>61.19</v>
+      </c>
+      <c r="R13" s="3">
+        <v>48.4</v>
+      </c>
+      <c r="S13" s="3">
+        <v>50.44</v>
+      </c>
+      <c r="T13" s="3">
+        <v>33.92</v>
+      </c>
+      <c r="U13" s="3">
+        <v>35.090000000000003</v>
+      </c>
+      <c r="V13" s="3">
+        <v>67.290000000000006</v>
+      </c>
+      <c r="W13" s="6">
+        <v>51.67</v>
+      </c>
+      <c r="X13" s="3">
+        <v>46.02</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>63.01</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>51.01</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>51.67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="H14" s="37">
+        <v>0.88</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="J14" s="40">
+        <v>0.82</v>
+      </c>
+      <c r="K14" s="37">
+        <v>0.86</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="N14" s="37">
+        <v>0.77</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>24.74</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>28.94</v>
+      </c>
+      <c r="R14" s="3">
+        <v>13.23</v>
+      </c>
+      <c r="S14" s="3">
+        <v>14.85</v>
+      </c>
+      <c r="T14" s="3">
+        <v>18.2</v>
+      </c>
+      <c r="U14" s="3">
+        <v>14.17</v>
+      </c>
+      <c r="V14" s="3">
+        <v>31.21</v>
+      </c>
+      <c r="W14" s="6">
+        <v>16.89</v>
+      </c>
+      <c r="X14" s="3">
+        <v>16.57</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>33.06</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>16.11</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>16.89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.96</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="E15" s="37">
+        <v>0.84</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="H15" s="37">
+        <v>0.81</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="J15" s="40">
+        <v>0.61</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="N15" s="37">
+        <v>0.64</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>23.87</v>
+      </c>
+      <c r="R15" s="3">
+        <v>18.32</v>
+      </c>
+      <c r="S15" s="3">
+        <v>16.96</v>
+      </c>
+      <c r="T15" s="3">
+        <v>31.79</v>
+      </c>
+      <c r="U15" s="3">
+        <v>20.75</v>
+      </c>
+      <c r="V15" s="3">
+        <v>31.32</v>
+      </c>
+      <c r="W15" s="6">
+        <v>18.36</v>
+      </c>
+      <c r="X15" s="3">
+        <v>13.33</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>25.54</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="AA15" s="7">
+        <v>15.22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.94</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E16" s="37">
+        <v>0.78</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="G16" s="45">
+        <v>0.86</v>
+      </c>
+      <c r="H16" s="37">
+        <v>0.67</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="J16" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0.96</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N16" s="37">
+        <v>0.48</v>
+      </c>
+      <c r="O16" s="45">
+        <v>0.88</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
+        <v>26.52</v>
+      </c>
+      <c r="S16" s="3">
+        <v>16.89</v>
+      </c>
+      <c r="T16" s="3">
+        <v>38.5</v>
+      </c>
+      <c r="U16" s="3">
+        <v>30.78</v>
+      </c>
+      <c r="V16" s="3">
+        <v>12.46</v>
+      </c>
+      <c r="W16" s="6">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="X16" s="3">
+        <v>23.06</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>28.2</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>20.22</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>18.739999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="E17" s="37">
+        <v>0.88</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="J17" s="40">
+        <v>0.78</v>
+      </c>
+      <c r="K17" s="37">
+        <v>0.88</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="N17" s="37">
+        <v>0.66</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="Q17" s="45">
+        <v>0.89</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>10.38</v>
+      </c>
+      <c r="T17" s="3">
+        <v>25.57</v>
+      </c>
+      <c r="U17" s="3">
+        <v>19.7</v>
+      </c>
+      <c r="V17" s="3">
+        <v>27.39</v>
+      </c>
+      <c r="W17" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="X17" s="3">
+        <v>11.05</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>25.44</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>10.11</v>
+      </c>
+      <c r="AA17" s="7">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="E18" s="37">
+        <v>0.88</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="H18" s="37">
+        <v>0.84</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="J18" s="40">
+        <v>0.71</v>
+      </c>
+      <c r="K18" s="10">
+        <v>0.94</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="N18" s="37">
+        <v>0.64</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>26.33</v>
+      </c>
+      <c r="U18" s="3">
+        <v>19.11</v>
+      </c>
+      <c r="V18" s="3">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="W18" s="6">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="X18" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>23.74</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>8.41</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A19" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.93</v>
+      </c>
+      <c r="F19" s="37">
+        <v>0.89</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="H19" s="37">
+        <v>0.82</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="J19" s="40">
+        <v>0.87</v>
+      </c>
+      <c r="K19" s="37">
+        <v>0.79</v>
+      </c>
+      <c r="L19" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="M19" s="10">
+        <v>0.94</v>
+      </c>
+      <c r="N19" s="37">
+        <v>0.83</v>
+      </c>
+      <c r="O19" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="P19" s="37">
+        <v>0.85</v>
+      </c>
+      <c r="Q19" s="37">
+        <v>0.78</v>
+      </c>
+      <c r="R19" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="S19" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="T19" s="10">
+        <v>0</v>
+      </c>
+      <c r="U19" s="3">
+        <v>12.63</v>
+      </c>
+      <c r="V19" s="3">
+        <v>42.21</v>
+      </c>
+      <c r="W19" s="6">
+        <v>25.63</v>
+      </c>
+      <c r="X19" s="3">
+        <v>23.38</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>34.25</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>30.39</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.93</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="H20" s="37">
+        <v>0.83</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="J20" s="40">
+        <v>0.79</v>
+      </c>
+      <c r="K20" s="37">
+        <v>0.86</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="N20" s="37">
+        <v>0.82</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="Q20" s="45">
+        <v>0.86</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="T20" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>37.159999999999997</v>
+      </c>
+      <c r="W20" s="6">
+        <v>19.46</v>
+      </c>
+      <c r="X20" s="3">
+        <v>15.25</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>30.8</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>22.83</v>
+      </c>
+      <c r="AA20" s="7">
+        <v>21.63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A21" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0.92</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0.91</v>
+      </c>
+      <c r="E21" s="38">
+        <v>0.73</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0.94</v>
+      </c>
+      <c r="G21" s="38">
+        <v>0.82</v>
+      </c>
+      <c r="H21" s="38">
+        <v>0.67</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0.94</v>
+      </c>
+      <c r="J21" s="43">
+        <v>0.53</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0.94</v>
+      </c>
+      <c r="L21" s="38">
+        <v>0.89</v>
+      </c>
+      <c r="M21" s="38">
+        <v>0.86</v>
+      </c>
+      <c r="N21" s="38">
+        <v>0.39</v>
+      </c>
+      <c r="O21" s="38">
+        <v>0.86</v>
+      </c>
+      <c r="P21" s="38">
+        <v>0.85</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="R21" s="38">
+        <v>0.89</v>
+      </c>
+      <c r="S21" s="11">
+        <v>0.94</v>
+      </c>
+      <c r="T21" s="38">
+        <v>0.74</v>
+      </c>
+      <c r="U21" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="V21" s="11">
+        <v>0</v>
+      </c>
+      <c r="W21" s="8">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="X21" s="2">
+        <v>27.37</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>30.41</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>22.37</v>
+      </c>
+      <c r="AA21" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="E22" s="39">
+        <v>0.89</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="H22" s="39">
+        <v>0.83</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="J22" s="42">
+        <v>0.72</v>
+      </c>
+      <c r="K22" s="12">
+        <v>0.94</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="N22" s="39">
+        <v>0.62</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="S22" s="1">
+        <v>1</v>
+      </c>
+      <c r="T22" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="V22" s="12">
+        <v>0.94</v>
+      </c>
+      <c r="W22" s="4">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>20.98</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>11.52</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="H23" s="37">
+        <v>0.85</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="J23" s="40">
+        <v>0.73</v>
+      </c>
+      <c r="K23" s="10">
+        <v>0.93</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="N23" s="37">
+        <v>0.69</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="T23" s="10">
+        <v>0.92</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="V23" s="37">
+        <v>0.89</v>
+      </c>
+      <c r="W23" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>23.64</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>14.02</v>
+      </c>
+      <c r="AA23" s="7">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="E24" s="37">
+        <v>0.88</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="G24" s="45">
+        <v>0.89</v>
+      </c>
+      <c r="H24" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="J24" s="40">
+        <v>0.67</v>
+      </c>
+      <c r="K24" s="37">
+        <v>0.82</v>
+      </c>
+      <c r="L24" s="45">
+        <v>0.88</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="N24" s="37">
+        <v>0.45</v>
+      </c>
+      <c r="O24" s="45">
+        <v>0.84</v>
+      </c>
+      <c r="P24" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="Q24" s="45">
+        <v>0.88</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="T24" s="37">
+        <v>0.83</v>
+      </c>
+      <c r="U24" s="45">
+        <v>0.86</v>
+      </c>
+      <c r="V24" s="37">
+        <v>0.86</v>
+      </c>
+      <c r="W24" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>25.98</v>
+      </c>
+      <c r="AA24" s="7">
+        <v>26.61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="E25" s="37">
+        <v>0.88</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="H25" s="37">
+        <v>0.87</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="J25" s="40">
+        <v>0.69</v>
+      </c>
+      <c r="K25" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="N25" s="37">
+        <v>0.63</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="T25" s="37">
+        <v>0.86</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="V25" s="10">
+        <v>0.92</v>
+      </c>
+      <c r="W25" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="7">
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="E26" s="38">
+        <v>0.84</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="H26" s="38">
+        <v>0.84</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="43">
+        <v>0.69</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0.94</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="N26" s="38">
+        <v>0.62</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="R26" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="S26" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="T26" s="38">
+        <v>0.87</v>
+      </c>
+      <c r="U26" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="V26" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="W26" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="X26" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="Y26" s="47">
+        <v>0.89</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="AA26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>